--- a/ServiceInteractions/riv/insuranceprocess/healthreporting/trunk/docs/Tjanstekontrakt insuranceprocess healthreporting - Regler - RegisterMedicalCertificate.xlsx
+++ b/ServiceInteractions/riv/insuranceprocess/healthreporting/trunk/docs/Tjanstekontrakt insuranceprocess healthreporting - Regler - RegisterMedicalCertificate.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
+  <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10425" yWindow="-15" windowWidth="10500" windowHeight="10440" activeTab="1"/>
+    <workbookView xWindow="10420" yWindow="-20" windowWidth="10500" windowHeight="10440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revisioner" sheetId="1" r:id="rId1"/>
     <sheet name="MU7263" sheetId="3" r:id="rId2"/>
     <sheet name="Regler för blankett" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -57,7 +62,6 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>Ange maxlängd för fasta stränglängder</t>
         </r>
@@ -70,7 +74,6 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>Ange maximalt antal siffror för decimaltal</t>
         </r>
@@ -83,7 +86,6 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>Ange antal siffor som anger decimaldelen i ett decimal tal, dvs antal siffror efter komma.
 För heltal är detta 0.</t>
@@ -97,7 +99,6 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>Ange antal förekomster för detta fält.</t>
         </r>
@@ -118,7 +119,6 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1:1 - alltid en förekomst, dvs mandatory fält
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="168">
   <si>
     <t>Version</t>
   </si>
@@ -518,9 +518,6 @@
     <t>Fält 17 - arbetsplatskod</t>
   </si>
   <si>
-    <t>MU7263-RIV_2.0.xsd + Insuranceprocess_healthreporting_1.0.xsd</t>
-  </si>
-  <si>
     <t>skickatdatum</t>
   </si>
   <si>
@@ -651,13 +648,22 @@
   </si>
   <si>
     <t>Aktivitetskod.KONTAKT_MED_FORSAKRINGSKASSAN_AR_AKTUELL</t>
+  </si>
+  <si>
+    <t>MU7263-RIV_3.0.xsd + Insuranceprocess_healthreporting_2.0.xsd</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>Ny version av MU7263 och insuranceprocess_healthreporting.xsd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,12 +730,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -767,177 +767,177 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -945,7 +945,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -953,29 +953,29 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1458,22 +1458,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="58" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="C1" s="58"/>
       <c r="D1" s="58"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickTop="1">
+    <row r="3" spans="1:4" ht="15" thickTop="1">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="6">
         <v>40347</v>
@@ -1548,12 +1548,12 @@
         <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="6">
         <v>40441</v>
@@ -1562,14 +1562,22 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="6">
+        <v>40509</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
@@ -1728,350 +1736,355 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="70.85546875" customWidth="1"/>
+    <col min="1" max="1" width="70.83203125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="81.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="81.5" customWidth="1"/>
     <col min="258" max="258" width="26" customWidth="1"/>
-    <col min="262" max="262" width="9.85546875" customWidth="1"/>
-    <col min="263" max="263" width="11.5703125" customWidth="1"/>
-    <col min="264" max="264" width="28.140625" customWidth="1"/>
-    <col min="513" max="513" width="81.42578125" customWidth="1"/>
+    <col min="262" max="262" width="9.83203125" customWidth="1"/>
+    <col min="263" max="263" width="11.5" customWidth="1"/>
+    <col min="264" max="264" width="28.1640625" customWidth="1"/>
+    <col min="513" max="513" width="81.5" customWidth="1"/>
     <col min="514" max="514" width="26" customWidth="1"/>
-    <col min="518" max="518" width="9.85546875" customWidth="1"/>
-    <col min="519" max="519" width="11.5703125" customWidth="1"/>
-    <col min="520" max="520" width="28.140625" customWidth="1"/>
-    <col min="769" max="769" width="81.42578125" customWidth="1"/>
+    <col min="518" max="518" width="9.83203125" customWidth="1"/>
+    <col min="519" max="519" width="11.5" customWidth="1"/>
+    <col min="520" max="520" width="28.1640625" customWidth="1"/>
+    <col min="769" max="769" width="81.5" customWidth="1"/>
     <col min="770" max="770" width="26" customWidth="1"/>
-    <col min="774" max="774" width="9.85546875" customWidth="1"/>
-    <col min="775" max="775" width="11.5703125" customWidth="1"/>
-    <col min="776" max="776" width="28.140625" customWidth="1"/>
-    <col min="1025" max="1025" width="81.42578125" customWidth="1"/>
+    <col min="774" max="774" width="9.83203125" customWidth="1"/>
+    <col min="775" max="775" width="11.5" customWidth="1"/>
+    <col min="776" max="776" width="28.1640625" customWidth="1"/>
+    <col min="1025" max="1025" width="81.5" customWidth="1"/>
     <col min="1026" max="1026" width="26" customWidth="1"/>
-    <col min="1030" max="1030" width="9.85546875" customWidth="1"/>
-    <col min="1031" max="1031" width="11.5703125" customWidth="1"/>
-    <col min="1032" max="1032" width="28.140625" customWidth="1"/>
-    <col min="1281" max="1281" width="81.42578125" customWidth="1"/>
+    <col min="1030" max="1030" width="9.83203125" customWidth="1"/>
+    <col min="1031" max="1031" width="11.5" customWidth="1"/>
+    <col min="1032" max="1032" width="28.1640625" customWidth="1"/>
+    <col min="1281" max="1281" width="81.5" customWidth="1"/>
     <col min="1282" max="1282" width="26" customWidth="1"/>
-    <col min="1286" max="1286" width="9.85546875" customWidth="1"/>
-    <col min="1287" max="1287" width="11.5703125" customWidth="1"/>
-    <col min="1288" max="1288" width="28.140625" customWidth="1"/>
-    <col min="1537" max="1537" width="81.42578125" customWidth="1"/>
+    <col min="1286" max="1286" width="9.83203125" customWidth="1"/>
+    <col min="1287" max="1287" width="11.5" customWidth="1"/>
+    <col min="1288" max="1288" width="28.1640625" customWidth="1"/>
+    <col min="1537" max="1537" width="81.5" customWidth="1"/>
     <col min="1538" max="1538" width="26" customWidth="1"/>
-    <col min="1542" max="1542" width="9.85546875" customWidth="1"/>
-    <col min="1543" max="1543" width="11.5703125" customWidth="1"/>
-    <col min="1544" max="1544" width="28.140625" customWidth="1"/>
-    <col min="1793" max="1793" width="81.42578125" customWidth="1"/>
+    <col min="1542" max="1542" width="9.83203125" customWidth="1"/>
+    <col min="1543" max="1543" width="11.5" customWidth="1"/>
+    <col min="1544" max="1544" width="28.1640625" customWidth="1"/>
+    <col min="1793" max="1793" width="81.5" customWidth="1"/>
     <col min="1794" max="1794" width="26" customWidth="1"/>
-    <col min="1798" max="1798" width="9.85546875" customWidth="1"/>
-    <col min="1799" max="1799" width="11.5703125" customWidth="1"/>
-    <col min="1800" max="1800" width="28.140625" customWidth="1"/>
-    <col min="2049" max="2049" width="81.42578125" customWidth="1"/>
+    <col min="1798" max="1798" width="9.83203125" customWidth="1"/>
+    <col min="1799" max="1799" width="11.5" customWidth="1"/>
+    <col min="1800" max="1800" width="28.1640625" customWidth="1"/>
+    <col min="2049" max="2049" width="81.5" customWidth="1"/>
     <col min="2050" max="2050" width="26" customWidth="1"/>
-    <col min="2054" max="2054" width="9.85546875" customWidth="1"/>
-    <col min="2055" max="2055" width="11.5703125" customWidth="1"/>
-    <col min="2056" max="2056" width="28.140625" customWidth="1"/>
-    <col min="2305" max="2305" width="81.42578125" customWidth="1"/>
+    <col min="2054" max="2054" width="9.83203125" customWidth="1"/>
+    <col min="2055" max="2055" width="11.5" customWidth="1"/>
+    <col min="2056" max="2056" width="28.1640625" customWidth="1"/>
+    <col min="2305" max="2305" width="81.5" customWidth="1"/>
     <col min="2306" max="2306" width="26" customWidth="1"/>
-    <col min="2310" max="2310" width="9.85546875" customWidth="1"/>
-    <col min="2311" max="2311" width="11.5703125" customWidth="1"/>
-    <col min="2312" max="2312" width="28.140625" customWidth="1"/>
-    <col min="2561" max="2561" width="81.42578125" customWidth="1"/>
+    <col min="2310" max="2310" width="9.83203125" customWidth="1"/>
+    <col min="2311" max="2311" width="11.5" customWidth="1"/>
+    <col min="2312" max="2312" width="28.1640625" customWidth="1"/>
+    <col min="2561" max="2561" width="81.5" customWidth="1"/>
     <col min="2562" max="2562" width="26" customWidth="1"/>
-    <col min="2566" max="2566" width="9.85546875" customWidth="1"/>
-    <col min="2567" max="2567" width="11.5703125" customWidth="1"/>
-    <col min="2568" max="2568" width="28.140625" customWidth="1"/>
-    <col min="2817" max="2817" width="81.42578125" customWidth="1"/>
+    <col min="2566" max="2566" width="9.83203125" customWidth="1"/>
+    <col min="2567" max="2567" width="11.5" customWidth="1"/>
+    <col min="2568" max="2568" width="28.1640625" customWidth="1"/>
+    <col min="2817" max="2817" width="81.5" customWidth="1"/>
     <col min="2818" max="2818" width="26" customWidth="1"/>
-    <col min="2822" max="2822" width="9.85546875" customWidth="1"/>
-    <col min="2823" max="2823" width="11.5703125" customWidth="1"/>
-    <col min="2824" max="2824" width="28.140625" customWidth="1"/>
-    <col min="3073" max="3073" width="81.42578125" customWidth="1"/>
+    <col min="2822" max="2822" width="9.83203125" customWidth="1"/>
+    <col min="2823" max="2823" width="11.5" customWidth="1"/>
+    <col min="2824" max="2824" width="28.1640625" customWidth="1"/>
+    <col min="3073" max="3073" width="81.5" customWidth="1"/>
     <col min="3074" max="3074" width="26" customWidth="1"/>
-    <col min="3078" max="3078" width="9.85546875" customWidth="1"/>
-    <col min="3079" max="3079" width="11.5703125" customWidth="1"/>
-    <col min="3080" max="3080" width="28.140625" customWidth="1"/>
-    <col min="3329" max="3329" width="81.42578125" customWidth="1"/>
+    <col min="3078" max="3078" width="9.83203125" customWidth="1"/>
+    <col min="3079" max="3079" width="11.5" customWidth="1"/>
+    <col min="3080" max="3080" width="28.1640625" customWidth="1"/>
+    <col min="3329" max="3329" width="81.5" customWidth="1"/>
     <col min="3330" max="3330" width="26" customWidth="1"/>
-    <col min="3334" max="3334" width="9.85546875" customWidth="1"/>
-    <col min="3335" max="3335" width="11.5703125" customWidth="1"/>
-    <col min="3336" max="3336" width="28.140625" customWidth="1"/>
-    <col min="3585" max="3585" width="81.42578125" customWidth="1"/>
+    <col min="3334" max="3334" width="9.83203125" customWidth="1"/>
+    <col min="3335" max="3335" width="11.5" customWidth="1"/>
+    <col min="3336" max="3336" width="28.1640625" customWidth="1"/>
+    <col min="3585" max="3585" width="81.5" customWidth="1"/>
     <col min="3586" max="3586" width="26" customWidth="1"/>
-    <col min="3590" max="3590" width="9.85546875" customWidth="1"/>
-    <col min="3591" max="3591" width="11.5703125" customWidth="1"/>
-    <col min="3592" max="3592" width="28.140625" customWidth="1"/>
-    <col min="3841" max="3841" width="81.42578125" customWidth="1"/>
+    <col min="3590" max="3590" width="9.83203125" customWidth="1"/>
+    <col min="3591" max="3591" width="11.5" customWidth="1"/>
+    <col min="3592" max="3592" width="28.1640625" customWidth="1"/>
+    <col min="3841" max="3841" width="81.5" customWidth="1"/>
     <col min="3842" max="3842" width="26" customWidth="1"/>
-    <col min="3846" max="3846" width="9.85546875" customWidth="1"/>
-    <col min="3847" max="3847" width="11.5703125" customWidth="1"/>
-    <col min="3848" max="3848" width="28.140625" customWidth="1"/>
-    <col min="4097" max="4097" width="81.42578125" customWidth="1"/>
+    <col min="3846" max="3846" width="9.83203125" customWidth="1"/>
+    <col min="3847" max="3847" width="11.5" customWidth="1"/>
+    <col min="3848" max="3848" width="28.1640625" customWidth="1"/>
+    <col min="4097" max="4097" width="81.5" customWidth="1"/>
     <col min="4098" max="4098" width="26" customWidth="1"/>
-    <col min="4102" max="4102" width="9.85546875" customWidth="1"/>
-    <col min="4103" max="4103" width="11.5703125" customWidth="1"/>
-    <col min="4104" max="4104" width="28.140625" customWidth="1"/>
-    <col min="4353" max="4353" width="81.42578125" customWidth="1"/>
+    <col min="4102" max="4102" width="9.83203125" customWidth="1"/>
+    <col min="4103" max="4103" width="11.5" customWidth="1"/>
+    <col min="4104" max="4104" width="28.1640625" customWidth="1"/>
+    <col min="4353" max="4353" width="81.5" customWidth="1"/>
     <col min="4354" max="4354" width="26" customWidth="1"/>
-    <col min="4358" max="4358" width="9.85546875" customWidth="1"/>
-    <col min="4359" max="4359" width="11.5703125" customWidth="1"/>
-    <col min="4360" max="4360" width="28.140625" customWidth="1"/>
-    <col min="4609" max="4609" width="81.42578125" customWidth="1"/>
+    <col min="4358" max="4358" width="9.83203125" customWidth="1"/>
+    <col min="4359" max="4359" width="11.5" customWidth="1"/>
+    <col min="4360" max="4360" width="28.1640625" customWidth="1"/>
+    <col min="4609" max="4609" width="81.5" customWidth="1"/>
     <col min="4610" max="4610" width="26" customWidth="1"/>
-    <col min="4614" max="4614" width="9.85546875" customWidth="1"/>
-    <col min="4615" max="4615" width="11.5703125" customWidth="1"/>
-    <col min="4616" max="4616" width="28.140625" customWidth="1"/>
-    <col min="4865" max="4865" width="81.42578125" customWidth="1"/>
+    <col min="4614" max="4614" width="9.83203125" customWidth="1"/>
+    <col min="4615" max="4615" width="11.5" customWidth="1"/>
+    <col min="4616" max="4616" width="28.1640625" customWidth="1"/>
+    <col min="4865" max="4865" width="81.5" customWidth="1"/>
     <col min="4866" max="4866" width="26" customWidth="1"/>
-    <col min="4870" max="4870" width="9.85546875" customWidth="1"/>
-    <col min="4871" max="4871" width="11.5703125" customWidth="1"/>
-    <col min="4872" max="4872" width="28.140625" customWidth="1"/>
-    <col min="5121" max="5121" width="81.42578125" customWidth="1"/>
+    <col min="4870" max="4870" width="9.83203125" customWidth="1"/>
+    <col min="4871" max="4871" width="11.5" customWidth="1"/>
+    <col min="4872" max="4872" width="28.1640625" customWidth="1"/>
+    <col min="5121" max="5121" width="81.5" customWidth="1"/>
     <col min="5122" max="5122" width="26" customWidth="1"/>
-    <col min="5126" max="5126" width="9.85546875" customWidth="1"/>
-    <col min="5127" max="5127" width="11.5703125" customWidth="1"/>
-    <col min="5128" max="5128" width="28.140625" customWidth="1"/>
-    <col min="5377" max="5377" width="81.42578125" customWidth="1"/>
+    <col min="5126" max="5126" width="9.83203125" customWidth="1"/>
+    <col min="5127" max="5127" width="11.5" customWidth="1"/>
+    <col min="5128" max="5128" width="28.1640625" customWidth="1"/>
+    <col min="5377" max="5377" width="81.5" customWidth="1"/>
     <col min="5378" max="5378" width="26" customWidth="1"/>
-    <col min="5382" max="5382" width="9.85546875" customWidth="1"/>
-    <col min="5383" max="5383" width="11.5703125" customWidth="1"/>
-    <col min="5384" max="5384" width="28.140625" customWidth="1"/>
-    <col min="5633" max="5633" width="81.42578125" customWidth="1"/>
+    <col min="5382" max="5382" width="9.83203125" customWidth="1"/>
+    <col min="5383" max="5383" width="11.5" customWidth="1"/>
+    <col min="5384" max="5384" width="28.1640625" customWidth="1"/>
+    <col min="5633" max="5633" width="81.5" customWidth="1"/>
     <col min="5634" max="5634" width="26" customWidth="1"/>
-    <col min="5638" max="5638" width="9.85546875" customWidth="1"/>
-    <col min="5639" max="5639" width="11.5703125" customWidth="1"/>
-    <col min="5640" max="5640" width="28.140625" customWidth="1"/>
-    <col min="5889" max="5889" width="81.42578125" customWidth="1"/>
+    <col min="5638" max="5638" width="9.83203125" customWidth="1"/>
+    <col min="5639" max="5639" width="11.5" customWidth="1"/>
+    <col min="5640" max="5640" width="28.1640625" customWidth="1"/>
+    <col min="5889" max="5889" width="81.5" customWidth="1"/>
     <col min="5890" max="5890" width="26" customWidth="1"/>
-    <col min="5894" max="5894" width="9.85546875" customWidth="1"/>
-    <col min="5895" max="5895" width="11.5703125" customWidth="1"/>
-    <col min="5896" max="5896" width="28.140625" customWidth="1"/>
-    <col min="6145" max="6145" width="81.42578125" customWidth="1"/>
+    <col min="5894" max="5894" width="9.83203125" customWidth="1"/>
+    <col min="5895" max="5895" width="11.5" customWidth="1"/>
+    <col min="5896" max="5896" width="28.1640625" customWidth="1"/>
+    <col min="6145" max="6145" width="81.5" customWidth="1"/>
     <col min="6146" max="6146" width="26" customWidth="1"/>
-    <col min="6150" max="6150" width="9.85546875" customWidth="1"/>
-    <col min="6151" max="6151" width="11.5703125" customWidth="1"/>
-    <col min="6152" max="6152" width="28.140625" customWidth="1"/>
-    <col min="6401" max="6401" width="81.42578125" customWidth="1"/>
+    <col min="6150" max="6150" width="9.83203125" customWidth="1"/>
+    <col min="6151" max="6151" width="11.5" customWidth="1"/>
+    <col min="6152" max="6152" width="28.1640625" customWidth="1"/>
+    <col min="6401" max="6401" width="81.5" customWidth="1"/>
     <col min="6402" max="6402" width="26" customWidth="1"/>
-    <col min="6406" max="6406" width="9.85546875" customWidth="1"/>
-    <col min="6407" max="6407" width="11.5703125" customWidth="1"/>
-    <col min="6408" max="6408" width="28.140625" customWidth="1"/>
-    <col min="6657" max="6657" width="81.42578125" customWidth="1"/>
+    <col min="6406" max="6406" width="9.83203125" customWidth="1"/>
+    <col min="6407" max="6407" width="11.5" customWidth="1"/>
+    <col min="6408" max="6408" width="28.1640625" customWidth="1"/>
+    <col min="6657" max="6657" width="81.5" customWidth="1"/>
     <col min="6658" max="6658" width="26" customWidth="1"/>
-    <col min="6662" max="6662" width="9.85546875" customWidth="1"/>
-    <col min="6663" max="6663" width="11.5703125" customWidth="1"/>
-    <col min="6664" max="6664" width="28.140625" customWidth="1"/>
-    <col min="6913" max="6913" width="81.42578125" customWidth="1"/>
+    <col min="6662" max="6662" width="9.83203125" customWidth="1"/>
+    <col min="6663" max="6663" width="11.5" customWidth="1"/>
+    <col min="6664" max="6664" width="28.1640625" customWidth="1"/>
+    <col min="6913" max="6913" width="81.5" customWidth="1"/>
     <col min="6914" max="6914" width="26" customWidth="1"/>
-    <col min="6918" max="6918" width="9.85546875" customWidth="1"/>
-    <col min="6919" max="6919" width="11.5703125" customWidth="1"/>
-    <col min="6920" max="6920" width="28.140625" customWidth="1"/>
-    <col min="7169" max="7169" width="81.42578125" customWidth="1"/>
+    <col min="6918" max="6918" width="9.83203125" customWidth="1"/>
+    <col min="6919" max="6919" width="11.5" customWidth="1"/>
+    <col min="6920" max="6920" width="28.1640625" customWidth="1"/>
+    <col min="7169" max="7169" width="81.5" customWidth="1"/>
     <col min="7170" max="7170" width="26" customWidth="1"/>
-    <col min="7174" max="7174" width="9.85546875" customWidth="1"/>
-    <col min="7175" max="7175" width="11.5703125" customWidth="1"/>
-    <col min="7176" max="7176" width="28.140625" customWidth="1"/>
-    <col min="7425" max="7425" width="81.42578125" customWidth="1"/>
+    <col min="7174" max="7174" width="9.83203125" customWidth="1"/>
+    <col min="7175" max="7175" width="11.5" customWidth="1"/>
+    <col min="7176" max="7176" width="28.1640625" customWidth="1"/>
+    <col min="7425" max="7425" width="81.5" customWidth="1"/>
     <col min="7426" max="7426" width="26" customWidth="1"/>
-    <col min="7430" max="7430" width="9.85546875" customWidth="1"/>
-    <col min="7431" max="7431" width="11.5703125" customWidth="1"/>
-    <col min="7432" max="7432" width="28.140625" customWidth="1"/>
-    <col min="7681" max="7681" width="81.42578125" customWidth="1"/>
+    <col min="7430" max="7430" width="9.83203125" customWidth="1"/>
+    <col min="7431" max="7431" width="11.5" customWidth="1"/>
+    <col min="7432" max="7432" width="28.1640625" customWidth="1"/>
+    <col min="7681" max="7681" width="81.5" customWidth="1"/>
     <col min="7682" max="7682" width="26" customWidth="1"/>
-    <col min="7686" max="7686" width="9.85546875" customWidth="1"/>
-    <col min="7687" max="7687" width="11.5703125" customWidth="1"/>
-    <col min="7688" max="7688" width="28.140625" customWidth="1"/>
-    <col min="7937" max="7937" width="81.42578125" customWidth="1"/>
+    <col min="7686" max="7686" width="9.83203125" customWidth="1"/>
+    <col min="7687" max="7687" width="11.5" customWidth="1"/>
+    <col min="7688" max="7688" width="28.1640625" customWidth="1"/>
+    <col min="7937" max="7937" width="81.5" customWidth="1"/>
     <col min="7938" max="7938" width="26" customWidth="1"/>
-    <col min="7942" max="7942" width="9.85546875" customWidth="1"/>
-    <col min="7943" max="7943" width="11.5703125" customWidth="1"/>
-    <col min="7944" max="7944" width="28.140625" customWidth="1"/>
-    <col min="8193" max="8193" width="81.42578125" customWidth="1"/>
+    <col min="7942" max="7942" width="9.83203125" customWidth="1"/>
+    <col min="7943" max="7943" width="11.5" customWidth="1"/>
+    <col min="7944" max="7944" width="28.1640625" customWidth="1"/>
+    <col min="8193" max="8193" width="81.5" customWidth="1"/>
     <col min="8194" max="8194" width="26" customWidth="1"/>
-    <col min="8198" max="8198" width="9.85546875" customWidth="1"/>
-    <col min="8199" max="8199" width="11.5703125" customWidth="1"/>
-    <col min="8200" max="8200" width="28.140625" customWidth="1"/>
-    <col min="8449" max="8449" width="81.42578125" customWidth="1"/>
+    <col min="8198" max="8198" width="9.83203125" customWidth="1"/>
+    <col min="8199" max="8199" width="11.5" customWidth="1"/>
+    <col min="8200" max="8200" width="28.1640625" customWidth="1"/>
+    <col min="8449" max="8449" width="81.5" customWidth="1"/>
     <col min="8450" max="8450" width="26" customWidth="1"/>
-    <col min="8454" max="8454" width="9.85546875" customWidth="1"/>
-    <col min="8455" max="8455" width="11.5703125" customWidth="1"/>
-    <col min="8456" max="8456" width="28.140625" customWidth="1"/>
-    <col min="8705" max="8705" width="81.42578125" customWidth="1"/>
+    <col min="8454" max="8454" width="9.83203125" customWidth="1"/>
+    <col min="8455" max="8455" width="11.5" customWidth="1"/>
+    <col min="8456" max="8456" width="28.1640625" customWidth="1"/>
+    <col min="8705" max="8705" width="81.5" customWidth="1"/>
     <col min="8706" max="8706" width="26" customWidth="1"/>
-    <col min="8710" max="8710" width="9.85546875" customWidth="1"/>
-    <col min="8711" max="8711" width="11.5703125" customWidth="1"/>
-    <col min="8712" max="8712" width="28.140625" customWidth="1"/>
-    <col min="8961" max="8961" width="81.42578125" customWidth="1"/>
+    <col min="8710" max="8710" width="9.83203125" customWidth="1"/>
+    <col min="8711" max="8711" width="11.5" customWidth="1"/>
+    <col min="8712" max="8712" width="28.1640625" customWidth="1"/>
+    <col min="8961" max="8961" width="81.5" customWidth="1"/>
     <col min="8962" max="8962" width="26" customWidth="1"/>
-    <col min="8966" max="8966" width="9.85546875" customWidth="1"/>
-    <col min="8967" max="8967" width="11.5703125" customWidth="1"/>
-    <col min="8968" max="8968" width="28.140625" customWidth="1"/>
-    <col min="9217" max="9217" width="81.42578125" customWidth="1"/>
+    <col min="8966" max="8966" width="9.83203125" customWidth="1"/>
+    <col min="8967" max="8967" width="11.5" customWidth="1"/>
+    <col min="8968" max="8968" width="28.1640625" customWidth="1"/>
+    <col min="9217" max="9217" width="81.5" customWidth="1"/>
     <col min="9218" max="9218" width="26" customWidth="1"/>
-    <col min="9222" max="9222" width="9.85546875" customWidth="1"/>
-    <col min="9223" max="9223" width="11.5703125" customWidth="1"/>
-    <col min="9224" max="9224" width="28.140625" customWidth="1"/>
-    <col min="9473" max="9473" width="81.42578125" customWidth="1"/>
+    <col min="9222" max="9222" width="9.83203125" customWidth="1"/>
+    <col min="9223" max="9223" width="11.5" customWidth="1"/>
+    <col min="9224" max="9224" width="28.1640625" customWidth="1"/>
+    <col min="9473" max="9473" width="81.5" customWidth="1"/>
     <col min="9474" max="9474" width="26" customWidth="1"/>
-    <col min="9478" max="9478" width="9.85546875" customWidth="1"/>
-    <col min="9479" max="9479" width="11.5703125" customWidth="1"/>
-    <col min="9480" max="9480" width="28.140625" customWidth="1"/>
-    <col min="9729" max="9729" width="81.42578125" customWidth="1"/>
+    <col min="9478" max="9478" width="9.83203125" customWidth="1"/>
+    <col min="9479" max="9479" width="11.5" customWidth="1"/>
+    <col min="9480" max="9480" width="28.1640625" customWidth="1"/>
+    <col min="9729" max="9729" width="81.5" customWidth="1"/>
     <col min="9730" max="9730" width="26" customWidth="1"/>
-    <col min="9734" max="9734" width="9.85546875" customWidth="1"/>
-    <col min="9735" max="9735" width="11.5703125" customWidth="1"/>
-    <col min="9736" max="9736" width="28.140625" customWidth="1"/>
-    <col min="9985" max="9985" width="81.42578125" customWidth="1"/>
+    <col min="9734" max="9734" width="9.83203125" customWidth="1"/>
+    <col min="9735" max="9735" width="11.5" customWidth="1"/>
+    <col min="9736" max="9736" width="28.1640625" customWidth="1"/>
+    <col min="9985" max="9985" width="81.5" customWidth="1"/>
     <col min="9986" max="9986" width="26" customWidth="1"/>
-    <col min="9990" max="9990" width="9.85546875" customWidth="1"/>
-    <col min="9991" max="9991" width="11.5703125" customWidth="1"/>
-    <col min="9992" max="9992" width="28.140625" customWidth="1"/>
-    <col min="10241" max="10241" width="81.42578125" customWidth="1"/>
+    <col min="9990" max="9990" width="9.83203125" customWidth="1"/>
+    <col min="9991" max="9991" width="11.5" customWidth="1"/>
+    <col min="9992" max="9992" width="28.1640625" customWidth="1"/>
+    <col min="10241" max="10241" width="81.5" customWidth="1"/>
     <col min="10242" max="10242" width="26" customWidth="1"/>
-    <col min="10246" max="10246" width="9.85546875" customWidth="1"/>
-    <col min="10247" max="10247" width="11.5703125" customWidth="1"/>
-    <col min="10248" max="10248" width="28.140625" customWidth="1"/>
-    <col min="10497" max="10497" width="81.42578125" customWidth="1"/>
+    <col min="10246" max="10246" width="9.83203125" customWidth="1"/>
+    <col min="10247" max="10247" width="11.5" customWidth="1"/>
+    <col min="10248" max="10248" width="28.1640625" customWidth="1"/>
+    <col min="10497" max="10497" width="81.5" customWidth="1"/>
     <col min="10498" max="10498" width="26" customWidth="1"/>
-    <col min="10502" max="10502" width="9.85546875" customWidth="1"/>
-    <col min="10503" max="10503" width="11.5703125" customWidth="1"/>
-    <col min="10504" max="10504" width="28.140625" customWidth="1"/>
-    <col min="10753" max="10753" width="81.42578125" customWidth="1"/>
+    <col min="10502" max="10502" width="9.83203125" customWidth="1"/>
+    <col min="10503" max="10503" width="11.5" customWidth="1"/>
+    <col min="10504" max="10504" width="28.1640625" customWidth="1"/>
+    <col min="10753" max="10753" width="81.5" customWidth="1"/>
     <col min="10754" max="10754" width="26" customWidth="1"/>
-    <col min="10758" max="10758" width="9.85546875" customWidth="1"/>
-    <col min="10759" max="10759" width="11.5703125" customWidth="1"/>
-    <col min="10760" max="10760" width="28.140625" customWidth="1"/>
-    <col min="11009" max="11009" width="81.42578125" customWidth="1"/>
+    <col min="10758" max="10758" width="9.83203125" customWidth="1"/>
+    <col min="10759" max="10759" width="11.5" customWidth="1"/>
+    <col min="10760" max="10760" width="28.1640625" customWidth="1"/>
+    <col min="11009" max="11009" width="81.5" customWidth="1"/>
     <col min="11010" max="11010" width="26" customWidth="1"/>
-    <col min="11014" max="11014" width="9.85546875" customWidth="1"/>
-    <col min="11015" max="11015" width="11.5703125" customWidth="1"/>
-    <col min="11016" max="11016" width="28.140625" customWidth="1"/>
-    <col min="11265" max="11265" width="81.42578125" customWidth="1"/>
+    <col min="11014" max="11014" width="9.83203125" customWidth="1"/>
+    <col min="11015" max="11015" width="11.5" customWidth="1"/>
+    <col min="11016" max="11016" width="28.1640625" customWidth="1"/>
+    <col min="11265" max="11265" width="81.5" customWidth="1"/>
     <col min="11266" max="11266" width="26" customWidth="1"/>
-    <col min="11270" max="11270" width="9.85546875" customWidth="1"/>
-    <col min="11271" max="11271" width="11.5703125" customWidth="1"/>
-    <col min="11272" max="11272" width="28.140625" customWidth="1"/>
-    <col min="11521" max="11521" width="81.42578125" customWidth="1"/>
+    <col min="11270" max="11270" width="9.83203125" customWidth="1"/>
+    <col min="11271" max="11271" width="11.5" customWidth="1"/>
+    <col min="11272" max="11272" width="28.1640625" customWidth="1"/>
+    <col min="11521" max="11521" width="81.5" customWidth="1"/>
     <col min="11522" max="11522" width="26" customWidth="1"/>
-    <col min="11526" max="11526" width="9.85546875" customWidth="1"/>
-    <col min="11527" max="11527" width="11.5703125" customWidth="1"/>
-    <col min="11528" max="11528" width="28.140625" customWidth="1"/>
-    <col min="11777" max="11777" width="81.42578125" customWidth="1"/>
+    <col min="11526" max="11526" width="9.83203125" customWidth="1"/>
+    <col min="11527" max="11527" width="11.5" customWidth="1"/>
+    <col min="11528" max="11528" width="28.1640625" customWidth="1"/>
+    <col min="11777" max="11777" width="81.5" customWidth="1"/>
     <col min="11778" max="11778" width="26" customWidth="1"/>
-    <col min="11782" max="11782" width="9.85546875" customWidth="1"/>
-    <col min="11783" max="11783" width="11.5703125" customWidth="1"/>
-    <col min="11784" max="11784" width="28.140625" customWidth="1"/>
-    <col min="12033" max="12033" width="81.42578125" customWidth="1"/>
+    <col min="11782" max="11782" width="9.83203125" customWidth="1"/>
+    <col min="11783" max="11783" width="11.5" customWidth="1"/>
+    <col min="11784" max="11784" width="28.1640625" customWidth="1"/>
+    <col min="12033" max="12033" width="81.5" customWidth="1"/>
     <col min="12034" max="12034" width="26" customWidth="1"/>
-    <col min="12038" max="12038" width="9.85546875" customWidth="1"/>
-    <col min="12039" max="12039" width="11.5703125" customWidth="1"/>
-    <col min="12040" max="12040" width="28.140625" customWidth="1"/>
-    <col min="12289" max="12289" width="81.42578125" customWidth="1"/>
+    <col min="12038" max="12038" width="9.83203125" customWidth="1"/>
+    <col min="12039" max="12039" width="11.5" customWidth="1"/>
+    <col min="12040" max="12040" width="28.1640625" customWidth="1"/>
+    <col min="12289" max="12289" width="81.5" customWidth="1"/>
     <col min="12290" max="12290" width="26" customWidth="1"/>
-    <col min="12294" max="12294" width="9.85546875" customWidth="1"/>
-    <col min="12295" max="12295" width="11.5703125" customWidth="1"/>
-    <col min="12296" max="12296" width="28.140625" customWidth="1"/>
-    <col min="12545" max="12545" width="81.42578125" customWidth="1"/>
+    <col min="12294" max="12294" width="9.83203125" customWidth="1"/>
+    <col min="12295" max="12295" width="11.5" customWidth="1"/>
+    <col min="12296" max="12296" width="28.1640625" customWidth="1"/>
+    <col min="12545" max="12545" width="81.5" customWidth="1"/>
     <col min="12546" max="12546" width="26" customWidth="1"/>
-    <col min="12550" max="12550" width="9.85546875" customWidth="1"/>
-    <col min="12551" max="12551" width="11.5703125" customWidth="1"/>
-    <col min="12552" max="12552" width="28.140625" customWidth="1"/>
-    <col min="12801" max="12801" width="81.42578125" customWidth="1"/>
+    <col min="12550" max="12550" width="9.83203125" customWidth="1"/>
+    <col min="12551" max="12551" width="11.5" customWidth="1"/>
+    <col min="12552" max="12552" width="28.1640625" customWidth="1"/>
+    <col min="12801" max="12801" width="81.5" customWidth="1"/>
     <col min="12802" max="12802" width="26" customWidth="1"/>
-    <col min="12806" max="12806" width="9.85546875" customWidth="1"/>
-    <col min="12807" max="12807" width="11.5703125" customWidth="1"/>
-    <col min="12808" max="12808" width="28.140625" customWidth="1"/>
-    <col min="13057" max="13057" width="81.42578125" customWidth="1"/>
+    <col min="12806" max="12806" width="9.83203125" customWidth="1"/>
+    <col min="12807" max="12807" width="11.5" customWidth="1"/>
+    <col min="12808" max="12808" width="28.1640625" customWidth="1"/>
+    <col min="13057" max="13057" width="81.5" customWidth="1"/>
     <col min="13058" max="13058" width="26" customWidth="1"/>
-    <col min="13062" max="13062" width="9.85546875" customWidth="1"/>
-    <col min="13063" max="13063" width="11.5703125" customWidth="1"/>
-    <col min="13064" max="13064" width="28.140625" customWidth="1"/>
-    <col min="13313" max="13313" width="81.42578125" customWidth="1"/>
+    <col min="13062" max="13062" width="9.83203125" customWidth="1"/>
+    <col min="13063" max="13063" width="11.5" customWidth="1"/>
+    <col min="13064" max="13064" width="28.1640625" customWidth="1"/>
+    <col min="13313" max="13313" width="81.5" customWidth="1"/>
     <col min="13314" max="13314" width="26" customWidth="1"/>
-    <col min="13318" max="13318" width="9.85546875" customWidth="1"/>
-    <col min="13319" max="13319" width="11.5703125" customWidth="1"/>
-    <col min="13320" max="13320" width="28.140625" customWidth="1"/>
-    <col min="13569" max="13569" width="81.42578125" customWidth="1"/>
+    <col min="13318" max="13318" width="9.83203125" customWidth="1"/>
+    <col min="13319" max="13319" width="11.5" customWidth="1"/>
+    <col min="13320" max="13320" width="28.1640625" customWidth="1"/>
+    <col min="13569" max="13569" width="81.5" customWidth="1"/>
     <col min="13570" max="13570" width="26" customWidth="1"/>
-    <col min="13574" max="13574" width="9.85546875" customWidth="1"/>
-    <col min="13575" max="13575" width="11.5703125" customWidth="1"/>
-    <col min="13576" max="13576" width="28.140625" customWidth="1"/>
-    <col min="13825" max="13825" width="81.42578125" customWidth="1"/>
+    <col min="13574" max="13574" width="9.83203125" customWidth="1"/>
+    <col min="13575" max="13575" width="11.5" customWidth="1"/>
+    <col min="13576" max="13576" width="28.1640625" customWidth="1"/>
+    <col min="13825" max="13825" width="81.5" customWidth="1"/>
     <col min="13826" max="13826" width="26" customWidth="1"/>
-    <col min="13830" max="13830" width="9.85546875" customWidth="1"/>
-    <col min="13831" max="13831" width="11.5703125" customWidth="1"/>
-    <col min="13832" max="13832" width="28.140625" customWidth="1"/>
-    <col min="14081" max="14081" width="81.42578125" customWidth="1"/>
+    <col min="13830" max="13830" width="9.83203125" customWidth="1"/>
+    <col min="13831" max="13831" width="11.5" customWidth="1"/>
+    <col min="13832" max="13832" width="28.1640625" customWidth="1"/>
+    <col min="14081" max="14081" width="81.5" customWidth="1"/>
     <col min="14082" max="14082" width="26" customWidth="1"/>
-    <col min="14086" max="14086" width="9.85546875" customWidth="1"/>
-    <col min="14087" max="14087" width="11.5703125" customWidth="1"/>
-    <col min="14088" max="14088" width="28.140625" customWidth="1"/>
-    <col min="14337" max="14337" width="81.42578125" customWidth="1"/>
+    <col min="14086" max="14086" width="9.83203125" customWidth="1"/>
+    <col min="14087" max="14087" width="11.5" customWidth="1"/>
+    <col min="14088" max="14088" width="28.1640625" customWidth="1"/>
+    <col min="14337" max="14337" width="81.5" customWidth="1"/>
     <col min="14338" max="14338" width="26" customWidth="1"/>
-    <col min="14342" max="14342" width="9.85546875" customWidth="1"/>
-    <col min="14343" max="14343" width="11.5703125" customWidth="1"/>
-    <col min="14344" max="14344" width="28.140625" customWidth="1"/>
-    <col min="14593" max="14593" width="81.42578125" customWidth="1"/>
+    <col min="14342" max="14342" width="9.83203125" customWidth="1"/>
+    <col min="14343" max="14343" width="11.5" customWidth="1"/>
+    <col min="14344" max="14344" width="28.1640625" customWidth="1"/>
+    <col min="14593" max="14593" width="81.5" customWidth="1"/>
     <col min="14594" max="14594" width="26" customWidth="1"/>
-    <col min="14598" max="14598" width="9.85546875" customWidth="1"/>
-    <col min="14599" max="14599" width="11.5703125" customWidth="1"/>
-    <col min="14600" max="14600" width="28.140625" customWidth="1"/>
-    <col min="14849" max="14849" width="81.42578125" customWidth="1"/>
+    <col min="14598" max="14598" width="9.83203125" customWidth="1"/>
+    <col min="14599" max="14599" width="11.5" customWidth="1"/>
+    <col min="14600" max="14600" width="28.1640625" customWidth="1"/>
+    <col min="14849" max="14849" width="81.5" customWidth="1"/>
     <col min="14850" max="14850" width="26" customWidth="1"/>
-    <col min="14854" max="14854" width="9.85546875" customWidth="1"/>
-    <col min="14855" max="14855" width="11.5703125" customWidth="1"/>
-    <col min="14856" max="14856" width="28.140625" customWidth="1"/>
-    <col min="15105" max="15105" width="81.42578125" customWidth="1"/>
+    <col min="14854" max="14854" width="9.83203125" customWidth="1"/>
+    <col min="14855" max="14855" width="11.5" customWidth="1"/>
+    <col min="14856" max="14856" width="28.1640625" customWidth="1"/>
+    <col min="15105" max="15105" width="81.5" customWidth="1"/>
     <col min="15106" max="15106" width="26" customWidth="1"/>
-    <col min="15110" max="15110" width="9.85546875" customWidth="1"/>
-    <col min="15111" max="15111" width="11.5703125" customWidth="1"/>
-    <col min="15112" max="15112" width="28.140625" customWidth="1"/>
-    <col min="15361" max="15361" width="81.42578125" customWidth="1"/>
+    <col min="15110" max="15110" width="9.83203125" customWidth="1"/>
+    <col min="15111" max="15111" width="11.5" customWidth="1"/>
+    <col min="15112" max="15112" width="28.1640625" customWidth="1"/>
+    <col min="15361" max="15361" width="81.5" customWidth="1"/>
     <col min="15362" max="15362" width="26" customWidth="1"/>
-    <col min="15366" max="15366" width="9.85546875" customWidth="1"/>
-    <col min="15367" max="15367" width="11.5703125" customWidth="1"/>
-    <col min="15368" max="15368" width="28.140625" customWidth="1"/>
-    <col min="15617" max="15617" width="81.42578125" customWidth="1"/>
+    <col min="15366" max="15366" width="9.83203125" customWidth="1"/>
+    <col min="15367" max="15367" width="11.5" customWidth="1"/>
+    <col min="15368" max="15368" width="28.1640625" customWidth="1"/>
+    <col min="15617" max="15617" width="81.5" customWidth="1"/>
     <col min="15618" max="15618" width="26" customWidth="1"/>
-    <col min="15622" max="15622" width="9.85546875" customWidth="1"/>
-    <col min="15623" max="15623" width="11.5703125" customWidth="1"/>
-    <col min="15624" max="15624" width="28.140625" customWidth="1"/>
-    <col min="15873" max="15873" width="81.42578125" customWidth="1"/>
+    <col min="15622" max="15622" width="9.83203125" customWidth="1"/>
+    <col min="15623" max="15623" width="11.5" customWidth="1"/>
+    <col min="15624" max="15624" width="28.1640625" customWidth="1"/>
+    <col min="15873" max="15873" width="81.5" customWidth="1"/>
     <col min="15874" max="15874" width="26" customWidth="1"/>
-    <col min="15878" max="15878" width="9.85546875" customWidth="1"/>
-    <col min="15879" max="15879" width="11.5703125" customWidth="1"/>
-    <col min="15880" max="15880" width="28.140625" customWidth="1"/>
-    <col min="16129" max="16129" width="81.42578125" customWidth="1"/>
+    <col min="15878" max="15878" width="9.83203125" customWidth="1"/>
+    <col min="15879" max="15879" width="11.5" customWidth="1"/>
+    <col min="15880" max="15880" width="28.1640625" customWidth="1"/>
+    <col min="16129" max="16129" width="81.5" customWidth="1"/>
     <col min="16130" max="16130" width="26" customWidth="1"/>
-    <col min="16134" max="16134" width="9.85546875" customWidth="1"/>
-    <col min="16135" max="16135" width="11.5703125" customWidth="1"/>
-    <col min="16136" max="16136" width="28.140625" customWidth="1"/>
+    <col min="16134" max="16134" width="9.83203125" customWidth="1"/>
+    <col min="16135" max="16135" width="11.5" customWidth="1"/>
+    <col min="16136" max="16136" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="30" customFormat="1" ht="27.75">
+    <row r="1" spans="1:16" s="30" customFormat="1" ht="26">
       <c r="A1" s="29" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="B1" s="29"/>
     </row>
-    <row r="3" spans="1:16" s="31" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:16" s="31" customFormat="1" ht="38.25">
+    <row r="3" spans="1:16" s="31" customFormat="1" ht="15" thickBot="1"/>
+    <row r="4" spans="1:16" s="31" customFormat="1" ht="36">
       <c r="A4" s="32" t="s">
         <v>34</v>
       </c>
@@ -2163,7 +2176,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>1</v>
@@ -2173,7 +2186,7 @@
       <c r="F8" s="38"/>
       <c r="G8" s="39"/>
       <c r="H8" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2181,7 +2194,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>111</v>
@@ -2191,7 +2204,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
       <c r="H9" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2211,7 +2224,7 @@
         <v>41</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2311,7 +2324,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>107</v>
@@ -2349,7 +2362,7 @@
         <v>77</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>107</v>
@@ -2367,7 +2380,7 @@
         <v>77</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>107</v>
@@ -2439,7 +2452,7 @@
         <v>77</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>107</v>
@@ -2765,7 +2778,7 @@
         <v>86</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" s="38" t="s">
         <v>1</v>
@@ -2783,7 +2796,7 @@
         <v>86</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>1</v>
@@ -2832,7 +2845,7 @@
       </c>
       <c r="H44" s="40"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+    <row r="45" spans="1:8" ht="15" thickBot="1">
       <c r="A45" s="42"/>
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
@@ -2842,7 +2855,7 @@
       <c r="G45" s="45"/>
       <c r="H45" s="46"/>
     </row>
-    <row r="46" spans="1:8" ht="23.25" thickBot="1">
+    <row r="46" spans="1:8" ht="25" thickBot="1">
       <c r="A46" s="47" t="s">
         <v>34</v>
       </c>
@@ -2974,34 +2987,39 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="83.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="88.42578125" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="83.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="88.5" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="27.75">
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="26">
       <c r="A1" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="19" customFormat="1" ht="20.25">
+    <row r="2" spans="1:8" s="19" customFormat="1" ht="18">
       <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
@@ -3047,7 +3065,7 @@
     </row>
     <row r="6" spans="1:8" s="22" customFormat="1">
       <c r="A6" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>18</v>
@@ -3097,7 +3115,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>19</v>
@@ -3133,7 +3151,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -3143,7 +3161,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="51" t="s">
         <v>115</v>
@@ -3153,13 +3171,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="59" t="s">
         <v>145</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>146</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>89</v>
@@ -3167,7 +3185,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -3177,7 +3195,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -3187,7 +3205,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -3200,17 +3218,17 @@
         <v>23</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="37" t="s">
@@ -3219,7 +3237,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="60"/>
       <c r="C22" s="15"/>
@@ -3229,7 +3247,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" s="60"/>
       <c r="C23" s="15" t="s">
@@ -3241,7 +3259,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="60"/>
       <c r="C24" s="51" t="s">
@@ -3253,7 +3271,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="60"/>
       <c r="C25" s="15" t="s">
@@ -3263,9 +3281,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45">
+    <row r="26" spans="1:4" ht="42">
       <c r="A26" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -3277,9 +3295,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30">
+    <row r="27" spans="1:4" ht="28">
       <c r="A27" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
         <v>115</v>
@@ -3289,9 +3307,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30">
+    <row r="28" spans="1:4" ht="28">
       <c r="A28" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" s="59" t="s">
         <v>22</v>
@@ -3303,9 +3321,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30">
+    <row r="29" spans="1:4" ht="28">
       <c r="A29" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="59"/>
       <c r="C29" s="15" t="s">
@@ -3315,9 +3333,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30">
+    <row r="30" spans="1:4" ht="28">
       <c r="A30" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="59"/>
       <c r="C30" s="15" t="s">
@@ -3327,9 +3345,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30">
+    <row r="31" spans="1:4" ht="28">
       <c r="A31" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" s="59"/>
       <c r="C31" s="15" t="s">
@@ -3349,23 +3367,23 @@
       <c r="C32" s="15"/>
       <c r="D32" s="28"/>
     </row>
-    <row r="33" spans="1:5" ht="45">
+    <row r="33" spans="1:5" ht="42">
       <c r="A33" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="54" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="57" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30">
+    <row r="34" spans="1:5" ht="28">
       <c r="A34" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>19</v>
@@ -3377,17 +3395,17 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="16" t="s">
         <v>28</v>
       </c>
@@ -3395,7 +3413,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D36" s="37"/>
     </row>
@@ -3417,7 +3435,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38" s="37"/>
     </row>
@@ -3512,6 +3530,11 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>